--- a/pre/Slimagic/es/_Slimagic ES 1.xlsx
+++ b/pre/Slimagic/es/_Slimagic ES 1.xlsx
@@ -15,6 +15,422 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="149">
   <si>
     <t xml:space="preserve">Slimagic </t>
+  </si>
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
+    <t>Lo gracioso</t>
+  </si>
+  <si>
+    <t>Vídeo</t>
+  </si>
+  <si>
+    <t>Animales</t>
+  </si>
+  <si>
+    <t>Arte</t>
+  </si>
+  <si>
+    <t>Útil</t>
+  </si>
+  <si>
+    <t>Ciencia</t>
+  </si>
+  <si>
+    <t>Historias</t>
+  </si>
+  <si>
+    <t>Sobre nosotros</t>
+  </si>
+  <si>
+    <t>INICIAR SESIÓN</t>
+  </si>
+  <si>
+    <t>los famosos</t>
+  </si>
+  <si>
+    <t>adelgazamiento</t>
+  </si>
+  <si>
+    <t>antes y después</t>
+  </si>
+  <si>
+    <t>Adele, que adelgazó 45 kg, compartió su nueva foto y contó el secreto de su transformación</t>
+  </si>
+  <si>
+    <t>Fuente: https://www.instagram.com/adele/</t>
+  </si>
+  <si>
+    <t>El 5 de mayo, la famosa cantante y ganadora de 15 premios Grammy, Oscar y Globo de Oro, Adele celebró su 32 cumpleaños. Recientemente ella estaba un poco a la sombra y ni siquiera actualizaba su cuenta de Instagram con demasiada frecuencia. Sin embargo, recientemente recurrió a las redes sociales para agradecer a las personas por escribir sus cálidos deseos para su cumpleaños publicando una foto de la cual</t>
+  </si>
+  <si>
+    <t>los fanáticos se quedaron sin palabras.</t>
+  </si>
+  <si>
+    <t>Así se veía Adele</t>
+  </si>
+  <si>
+    <t>en 2013, durante la 85a edición anual de los Premios de la Academia «Оscar»</t>
+  </si>
+  <si>
+    <t>Fuente: https://www.oscars.org/</t>
+  </si>
+  <si>
+    <t>Entonces la cantante</t>
+  </si>
+  <si>
+    <t>también se veía muy linda</t>
+  </si>
+  <si>
+    <t>y todo el mundo se acostumbró a su imagen, pero, según su confesión, ella misma se sentía muy incómoda de estar en ese peso al principio de su carrera, ella pesaba 132 kg, pero con el tiempo logró un poco</t>
+  </si>
+  <si>
+    <t>adelgazar</t>
+  </si>
+  <si>
+    <t>sin embargo, deshacerse completamente de</t>
+  </si>
+  <si>
+    <t>exceso de peso</t>
+  </si>
+  <si>
+    <t>no podía.</t>
+  </si>
+  <si>
+    <t>Y así, en 2019, después de divorciarse de Simon Konecki, Adele comenzó a adelgazar y sus fanáticos comenzaron a notar esto</t>
+  </si>
+  <si>
+    <t>Hoy en día</t>
+  </si>
+  <si>
+    <t>la cantante se transformó por completo</t>
+  </si>
+  <si>
+    <t>y mostró cómo se ve ahora, publicando una nueva foto para su 32 cumpleaños</t>
+  </si>
+  <si>
+    <t>Así es como se ve Adele ahora :</t>
+  </si>
+  <si>
+    <t>Ella no sólo</t>
+  </si>
+  <si>
+    <t>adelgazo</t>
+  </si>
+  <si>
+    <t>. ¡ también rejuveneció por al menos 10 años! Los fanáticos no pudieron evitar notar su increíble transformación y comenzaron a preguntarse ¡cómo lo logró en tan poco tiempo!</t>
+  </si>
+  <si>
+    <t>Adele no ignoró las preguntas de sus fanáticos y les respondió en el siguiente post. esto es lo que ella escribió:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nunca he tenido complejos sobre 
+</t>
+  </si>
+  <si>
+    <t>. Pero comencé a notar que mi estado de salud empeoraba, había dificultad para respirar y me di cuenta de que era necesario cambiar algo... Quiero estar sana por mi hijo.</t>
+  </si>
+  <si>
+    <t>Comencé con entrenamientos reforzados en los simuladores, cambié la nutrición, abandoné los malos hábitos, asi pude lograr un pequeño efecto, pero no lo que esperaba y más aún no logré</t>
+  </si>
+  <si>
+    <t>el resultado que quería.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">” </t>
+  </si>
+  <si>
+    <t>Casi al mismo tiempo, Adele</t>
+  </si>
+  <si>
+    <t>descubrió gotas Slimagic</t>
+  </si>
+  <si>
+    <t>sobre las cuales ya hemos hablado en detalle.</t>
+  </si>
+  <si>
+    <t>SLIMAGIC -</t>
+  </si>
+  <si>
+    <t>El concentrado natural para quemar grasas viscerales (profundas) y subcutáneas, hace un efecto complejo en el cuerpo, nutriendolo con vitaminas y minerales. El concentrado de plantas nutre el cuerpo con vitaminas A, E, grupo B, estimula la quema de grasa sin causar daño a la salud. Elimina las formaciones de celulitis en las caderas, el abdomen y los brazos ya en la segunda semana de uso.</t>
+  </si>
+  <si>
+    <t>Tomar estas gotas no significa pasar hambre</t>
+  </si>
+  <si>
+    <t>, incluso puedes beber vino tinto y comer chocolate negro que positivamente afectan el estado del sistema nervioso.</t>
+  </si>
+  <si>
+    <t>Ir al sitio web oficial</t>
+  </si>
+  <si>
+    <t>El año pasado, la cantante ganadora del Grammy</t>
+  </si>
+  <si>
+    <t>comenzo a usar Slimagic para perder el peso</t>
+  </si>
+  <si>
+    <t>, y los resultados que logró dejaron a sus fanáticos sin palabras. La cantante</t>
+  </si>
+  <si>
+    <t>logró perder 45 kg</t>
+  </si>
+  <si>
+    <t>en solo un par de meses y ahora se ve genial!</t>
+  </si>
+  <si>
+    <t>Esto es lo que escribió en sus redes sociales:</t>
+  </si>
+  <si>
+    <t>Lo más importante para perder peso es</t>
+  </si>
+  <si>
+    <t>no provocar daño a la salud. Desafortunadamente, los métodos más populares de pérdida de peso no pueden presumir de esto. No puedes hacer una dieta todo el tiempo, y no todos pueden aguantarla. Al no haber logrado su objetivo, las personas recurren a las píldoras, la gran mayoría de las cuales solo debilitan el estado del organizmo, causando interrupciones en su funcionamiento.</t>
+  </si>
+  <si>
+    <t>Pérdida de peso</t>
+  </si>
+  <si>
+    <t>Debe ser natural y no perturbar los procesos internos del organismo. Hoy en dia,</t>
+  </si>
+  <si>
+    <t>Slimagic -</t>
+  </si>
+  <si>
+    <t>la única herramienta que cumple con estos desafíos. Los microelementos activos del tratamiento provocan una aceleración del metabolismo y la quema de grasa al menos 10 veces. Estoy convencida de que esto es</t>
+  </si>
+  <si>
+    <t>la mejor solucion que existe hoy en día en la nutrición moderna.</t>
+  </si>
+  <si>
+    <t>Y lo probé yo misma y logré resultados increíbles sin dañar mi salud. Opino que</t>
+  </si>
+  <si>
+    <t>45 kg en dos meses es un éxito!</t>
+  </si>
+  <si>
+    <t>Así es como se ve la cantante ahora :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“ </t>
+  </si>
+  <si>
+    <t>Bebí Slimagic por las mañanas con un vaso de agua.</t>
+  </si>
+  <si>
+    <t>. Y después de una semana me sorprendi gratamente con los resultados. Mi energía estaba al máximo, y al mismo tiempo no tenía hambre y no me agotaba con el entrenamiento. Una semana después, pesé y ya había perdido 4 kg. Continué tomando gotas por las mañanas y realizaba mis actividades diarias y el peso desaparecia por sí solo. En la cuarta semana estaba extasiada,</t>
+  </si>
+  <si>
+    <t>mi peso disminuyó en 14 kg</t>
+  </si>
+  <si>
+    <t>. ¡Después de dos meses de tratamiento, peso 45 kilogramos menos! Estoy muy contenta de poder compartir mis logros con ustedes, y aún más contenta de poder contarles cómo lo logré. ¡Sé saludable y cuida tu salud! ” entonces Adele termina su publicación.</t>
+  </si>
+  <si>
+    <t>Slimagic recibió la certificación en Grecia, y hasta que aparezca en las farmacias, la forma más confiable de comprar este producto es pedirlo en el sitio web oficial del proveedor. Esto garantiza su calidad y lo mantendrá alejado de las falsificaciones.</t>
+  </si>
+  <si>
+    <t>Para completar una solicitud, simplemente introduzca su nombre y apellido y número de teléfono para comunicarse</t>
+  </si>
+  <si>
+    <t>en el sitio web oficial del producto "SLIMAGIC"</t>
+  </si>
+  <si>
+    <t>y espere la llamada del encargado para confirmar el pedido</t>
+  </si>
+  <si>
+    <t>Lee también ...</t>
+  </si>
+  <si>
+    <t>¿Cuál es tu argumento más fuerte para cuidarte?</t>
+  </si>
+  <si>
+    <t>Bloque de Color verano 2020: cómo usar la tendencia de la moda en la nueva temporada</t>
+  </si>
+  <si>
+    <t>Disfruta de un spa en casa: 4 recetas de mascarillas y exfoliantes</t>
+  </si>
+  <si>
+    <t>cómo elegir y qué ponerse con falda más elegante de la temporada</t>
+  </si>
+  <si>
+    <t>Remedios de calidad para el acné</t>
+  </si>
+  <si>
+    <t>¿A quién ayudar durante la cuarentena?</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>enviar</t>
+  </si>
+  <si>
+    <t>Diana Arrias</t>
+  </si>
+  <si>
+    <t>¡Oh, qué bien hecho, ha cambiado más allá del reconocimiento!!! La adoro)</t>
+  </si>
+  <si>
+    <t>Responder</t>
+  </si>
+  <si>
+    <t>Olivia Rueda</t>
+  </si>
+  <si>
+    <t>Logre rebajar 31 kg. Anteriormente pesaba 94 kg. Recuerdo lo difícil que fue al principio que si va a funcionar o no, y que si es efectivo o no. Es difícil cuando uno no recibe apoyo, especialmente cuando tu sobrepeso es enorme, pero SLIMAGIC quemó todos los kilogramos, ¡no esperaba tales resultados!</t>
+  </si>
+  <si>
+    <t>Nerea Villabuena</t>
+  </si>
+  <si>
+    <t>Ya escuché sobre estas gotas e incluso las ordené. Las estoy tomando durante una semana y no lo creerán, ¡en estos 7 días bajé 3 kg y solo quedan otros 18! ¡Tendré éxito! Seguramente :)</t>
+  </si>
+  <si>
+    <t>Consuelo Navarro</t>
+  </si>
+  <si>
+    <t>¡Debemos intentarlo si Adele tuvo éxito!</t>
+  </si>
+  <si>
+    <t>Elisa Marquez</t>
+  </si>
+  <si>
+    <t>Estoy en shock !!! Esta mujer es ella, no lo puedo creer , ¿sera posible?</t>
+  </si>
+  <si>
+    <t>Adriana Muñoz</t>
+  </si>
+  <si>
+    <t>Sí, probablemente hizo una cirujia .No ayudan, probé estas gotas. Es embuste y mentira.</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Hola  Adriana y gracias por el comentario. Esta es una declaración muy extraña, ya que nuestro producto tiene todas las certificaciones y ha pasado pruebas clinicas. Después de consultar con nuestros especialistas, le recomendamos que revise su dieta diaria. Tal vez cuando lo tomaba, inconscientemente ha comenzado comer de más? Entonces la falta de progreso es explicable: ¿el producto ayuda, pero usted no hace un curso de tratamiento completo y no sigue las instrucciones? Gracias de nuevo por su comentario y que tenga un buen día.</t>
+  </si>
+  <si>
+    <t>Victoria Garcia</t>
+  </si>
+  <si>
+    <t>Comprobado, realmente comencé a comer más(((</t>
+  </si>
+  <si>
+    <t>Entonces le sugerimos comprar el producto, pero para un curso completo.</t>
+  </si>
+  <si>
+    <t>Tal y cual, ¡gracias, por sugerencia!)</t>
+  </si>
+  <si>
+    <t>Eleida Marco</t>
+  </si>
+  <si>
+    <t>¡También logré perder peso! ¡Les deseo mucha suerte a todos, apoyo mentalmente a los que luchan con el exceso de peso!</t>
+  </si>
+  <si>
+    <t>Laura Fernández</t>
+  </si>
+  <si>
+    <t>A mí, como Adele, me ayudó mucho este producto. Una gran diferencia entre lo que fui antes y como me veo ahora. No esperaba que en mi edad pudiera perder casi 40 kg (hasta ahora -37 kg). ¡Mi bienestar es excelente! ¡Es una solución perfecta para las personas como yo ! Recomiendo SLIMAGIC definitivamente! Aquí están mis resultados:</t>
+  </si>
+  <si>
+    <t>Miguel  Ramos</t>
+  </si>
+  <si>
+    <t>Antes de tomar las gotas SLIMAGIC, pesaba 90 kg. En mi juventud siempre fui delgado, y con la edad, mi barriga y los costados aparecieron de alguna manera. A los 35 años, me di cuenta de que necesitaba ponerme en forma urgentemente. Durante casi un año me dediqué al entrenamiento, pero no pude lograr mi objetivo. Luego añadi "SLIMAGIC" a la dieta y en pocas semanas me convirti en la persona que fui. Ahora cuido de mi figura, siempre tengo un par de paquetes de "SLIMAGIC"guardados en casa.</t>
+  </si>
+  <si>
+    <t>Lupe Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Después del parto, si se aumenta de peso, es necesario eliminarlo con urgencia, eso se logra en la cinta de correr durante varias horas, pero escuché que es muy dañino para las articulaciones, porque esencialmente estariamos saltando con sobrepeso, las articulaciones simplemente no pueden soportar tal ejercicio. Pero existe opcion de tomar "SLIMAGIC " como yo, es muy conveniente para recuperarse. Es extraño que no todos aplican este producto.
+</t>
+  </si>
+  <si>
+    <t>Maria Lara</t>
+  </si>
+  <si>
+    <t>También usé estas gotas. En solo 1 curso completo con "SLIMAGIC" perdi casi 30 kilos, cambios fueron enormes. Bueno, por supuesto que no he tragado pasteles, pero con el resto no me estaba limitando. Es algo que cuando quiero patatas, como patatas.</t>
+  </si>
+  <si>
+    <t>Vanessa Burgos</t>
+  </si>
+  <si>
+    <t>¿El sitio web oficial del fabricante es el único lugar donde puedes comprar "SLIMAGIC" en nuestro país o también se vende en tiendas en línea?</t>
+  </si>
+  <si>
+    <t>Juan Soto</t>
+  </si>
+  <si>
+    <t>Vanessa, desafortunadamente sí, dado que las farmacias están tratando de sacar provecho de las personas y estamos tratando de ayudarles con sus problemas de salud, se negaron a establecer el precio del fabricante, por lo que tenemos que vender por Internet porque por lo menos podemos establecer un precio que sea aceptable para ustedes.</t>
+  </si>
+  <si>
+    <t>Maria Lopez</t>
+  </si>
+  <si>
+    <t>Genial y si realmente funciona. Aunque soy escéptica. Y puedo creer más en el poder de un coctel que en unas gotas. Pero haré de todo para cuidar de la figura, las ordenaré.</t>
+  </si>
+  <si>
+    <t>Carmen Marquez</t>
+  </si>
+  <si>
+    <t>He estado bebiendo "SLIMAGIC" durante mucho tiempo. También tuve problemas con el peso, pero ahora ni siquiera lo pienso, como de todo y si aumento de peso, aplico el curso completo y vuelvo a la normalidad.</t>
+  </si>
+  <si>
+    <t>Raquel Bueno</t>
+  </si>
+  <si>
+    <t>TENGO 97 KG. NO SÉ CÓMO COMBATIR MI SOBREPESO. NO QUIERO LLEGAR A TENER LOS 100 KG. ¿QUÉ HAGO ????? ¡¡¡¡¡¡¡AUXILIO!!!!!!! ¿PUEDO COMPRAR EN UNA FARMACIA TAL SLIMAGIC?</t>
+  </si>
+  <si>
+    <t>Mariana Prado</t>
+  </si>
+  <si>
+    <t>Raquel, bueno, por supuesto, puedes buscar, pero yo solo lo encontré en el sitio web oficial del fabricante, y aun así es más confiable y seguro ademas puedes obtener un descuento.</t>
+  </si>
+  <si>
+    <t>Buenas tardes Raquel. Por el momento," SLIMAGIC " solo se puede comprar en nuestro sitio web oficial.</t>
+  </si>
+  <si>
+    <t>Recomendación</t>
+  </si>
+  <si>
+    <t>20+ fotos incómodas juveniles por las que la gente todavía se siente...</t>
+  </si>
+  <si>
+    <t>Mamá creó máscarillas (tapabocas) transparentes para poder leer los labios y descubrió que...</t>
+  </si>
+  <si>
+    <t>Una blogger fuertemente aplica photoshop sus fotos, pero la han descubierto, mostrando cómo ...</t>
+  </si>
+  <si>
+    <t>etiquetas</t>
+  </si>
+  <si>
+    <t>#Belleza</t>
+  </si>
+  <si>
+    <t>#Аdele</t>
+  </si>
+  <si>
+    <t>#Adelgazamiento</t>
+  </si>
+  <si>
+    <t>#Los famosos</t>
+  </si>
+  <si>
+    <t>#Historia</t>
+  </si>
+  <si>
+    <t>¿Qué chico estrella es el adecuado para ti?</t>
+  </si>
+  <si>
+    <t>pasar la encuesta</t>
+  </si>
+  <si>
+    <t>Deje un comentario</t>
   </si>
   <si>
     <t>&lt;!DOCTYPE html&gt;&lt;html lang="ru"&gt;&lt;head&gt;
@@ -84,9 +500,6 @@
 							&lt;a href&gt;&lt;span data-translate="12"&gt;знаменитости&lt;/span&gt;&lt;</t>
   </si>
   <si>
-    <t>Personas</t>
-  </si>
-  <si>
     <t>/a&gt;
 							&lt;img src="img/polygon.svg" alt&gt;
 							&lt;a href&gt;&lt;span data-translate="13"&gt;похудение&lt;/span&gt;&lt;/a&gt;
@@ -399,15 +812,6 @@
 								</t>
   </si>
   <si>
-    <t>Lo gracioso</t>
-  </si>
-  <si>
-    <t>Vídeo</t>
-  </si>
-  <si>
-    <t>Animales</t>
-  </si>
-  <si>
     <t xml:space="preserve">	&lt;div class="comment__head"&gt;
 										&lt;div class="name"&gt;&lt;span data-translate="124"&gt;Олег Кубарев&lt;/span&gt;&lt;/div&gt;
 									&lt;/div&gt;
@@ -461,15 +865,6 @@
 								&lt;div class="comment__header"&gt;
 									&lt;img class="ava" src="img/ava14.png" alt&gt;
 			</t>
-  </si>
-  <si>
-    <t>Arte</t>
-  </si>
-  <si>
-    <t>Útil</t>
-  </si>
-  <si>
-    <t>Ciencia</t>
   </si>
   <si>
     <t xml:space="preserve">						&lt;div class="comment__head"&gt;
@@ -529,18 +924,6 @@
 								&lt;div class="comment__header"&gt;
 									&lt;img class="ava" src="img/ava7.png" alt&gt;
 									&lt;div class</t>
-  </si>
-  <si>
-    <t>Historias</t>
-  </si>
-  <si>
-    <t>Sobre nosotros</t>
-  </si>
-  <si>
-    <t>INICIAR SESIÓN</t>
-  </si>
-  <si>
-    <t>los famosos</t>
   </si>
   <si>
     <t>="comment__head"&gt;
@@ -609,389 +992,6 @@
 	&lt;/script&gt;
 &lt;/body&gt;&lt;/html&gt;</t>
   </si>
-  <si>
-    <t>adelgazamiento</t>
-  </si>
-  <si>
-    <t>antes y después</t>
-  </si>
-  <si>
-    <t>Adele, que adelgazó 45 kg, compartió su nueva foto y contó el secreto de su transformación</t>
-  </si>
-  <si>
-    <t>Fuente: https://www.instagram.com/adele/</t>
-  </si>
-  <si>
-    <t>El 5 de mayo, la famosa cantante y ganadora de 15 premios Grammy, Oscar y Globo de Oro, Adele celebró su 32 cumpleaños. Recientemente ella estaba un poco a la sombra y ni siquiera actualizaba su cuenta de Instagram con demasiada frecuencia. Sin embargo, recientemente recurrió a las redes sociales para agradecer a las personas por escribir sus cálidos deseos para su cumpleaños publicando una foto de la cual</t>
-  </si>
-  <si>
-    <t>los fanáticos se quedaron sin palabras.</t>
-  </si>
-  <si>
-    <t>Así se veía Adele</t>
-  </si>
-  <si>
-    <t>en 2013, durante la 85a edición anual de los Premios de la Academia «Оscar»</t>
-  </si>
-  <si>
-    <t>Fuente: https://www.oscars.org/</t>
-  </si>
-  <si>
-    <t>Entonces la cantante</t>
-  </si>
-  <si>
-    <t>también se veía muy linda</t>
-  </si>
-  <si>
-    <t>y todo el mundo se acostumbró a su imagen, pero, según su confesión, ella misma se sentía muy incómoda de estar en ese peso al principio de su carrera, ella pesaba 132 kg, pero con el tiempo logró un poco</t>
-  </si>
-  <si>
-    <t>adelgazar</t>
-  </si>
-  <si>
-    <t>sin embargo, deshacerse completamente de</t>
-  </si>
-  <si>
-    <t>exceso de peso</t>
-  </si>
-  <si>
-    <t>no podía.</t>
-  </si>
-  <si>
-    <t>Y así, en 2019, después de divorciarse de Simon Konecki, Adele comenzó a adelgazar y sus fanáticos comenzaron a notar esto</t>
-  </si>
-  <si>
-    <t>Hoy en día</t>
-  </si>
-  <si>
-    <t>la cantante se transformó por completo</t>
-  </si>
-  <si>
-    <t>y mostró cómo se ve ahora, publicando una nueva foto para su 32 cumpleaños</t>
-  </si>
-  <si>
-    <t>Así es como se ve Adele ahora :</t>
-  </si>
-  <si>
-    <t>Ella no sólo</t>
-  </si>
-  <si>
-    <t>adelgazo</t>
-  </si>
-  <si>
-    <t>. ¡ también rejuveneció por al menos 10 años! Los fanáticos no pudieron evitar notar su increíble transformación y comenzaron a preguntarse ¡cómo lo logró en tan poco tiempo!</t>
-  </si>
-  <si>
-    <t>Adele no ignoró las preguntas de sus fanáticos y les respondió en el siguiente post. esto es lo que ella escribió:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nunca he tenido complejos sobre 
-</t>
-  </si>
-  <si>
-    <t>. Pero comencé a notar que mi estado de salud empeoraba, había dificultad para respirar y me di cuenta de que era necesario cambiar algo... Quiero estar sana por mi hijo.</t>
-  </si>
-  <si>
-    <t>Comencé con entrenamientos reforzados en los simuladores, cambié la nutrición, abandoné los malos hábitos, dio un pequeño efecto, pero no el que esperaba y más aún no lo logré</t>
-  </si>
-  <si>
-    <t>el resultado que quería.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">” </t>
-  </si>
-  <si>
-    <t>Casi al mismo tiempo, Adele</t>
-  </si>
-  <si>
-    <t>conoció gotas Slimagic</t>
-  </si>
-  <si>
-    <t>sobre los cuales ya hemos hablado en detalle.</t>
-  </si>
-  <si>
-    <t>SLIMAGIC -</t>
-  </si>
-  <si>
-    <t>El concentrado natural para quemar grasas viscerales (profundas) y subcutáneas, tiene un efecto complejo en el cuerpo, nutriendolo con vitaminas y minerales. El concentrado de plantas nutre el cuerpo con vitaminas A, E, grupo B, estimula la quema de grasa sin causar daño a la salud. Elimina las formaciones de celulitis en las caderas, el abdomen y los brazos ya en la segunda semana de uso.</t>
-  </si>
-  <si>
-    <t>Tomar estas gotas no significa pasar hambre</t>
-  </si>
-  <si>
-    <t>, incluso puedes beber vino tinto y comer chocolate negro que positivamente afectan el estado del sistema nervioso.</t>
-  </si>
-  <si>
-    <t>Ir al sitio web oficial</t>
-  </si>
-  <si>
-    <t>El año pasado, la cantante ganadora del Grammy</t>
-  </si>
-  <si>
-    <t>comenzo a usar Slimagic para perder el peso</t>
-  </si>
-  <si>
-    <t>, y los resultados que logró dejaron a sus fanáticos sin palabras. La cantante</t>
-  </si>
-  <si>
-    <t>logró perder 45 kg</t>
-  </si>
-  <si>
-    <t>en solo un par de meses y ahora se ve genial!</t>
-  </si>
-  <si>
-    <t>Esto es lo que escribió en sus redes sociales:</t>
-  </si>
-  <si>
-    <t>Lo más importante para perder peso es</t>
-  </si>
-  <si>
-    <t>no provocar daño a la salud. Desafortunadamente, los métodos más populares de pérdida de peso no pueden presumir de esto. No puedes hacer una dieta todo el tiempo, y no todos pueden aguantarla. Al no haber logrado su objetivo, las personas recurren a las píldoras, la gran mayoría de las cuales solo debilitan el cuerpo, causando interrupciones en su funcionamiento.</t>
-  </si>
-  <si>
-    <t>Pérdida de peso</t>
-  </si>
-  <si>
-    <t>Debe ser natural y no perturbar los procesos internos del organismo. Hoy en dia,</t>
-  </si>
-  <si>
-    <t>Slimagic -</t>
-  </si>
-  <si>
-    <t>la única herramienta que cumple con estos desafíos. Los microelementos activos del tratamiento provocan una aceleración del metabolismo y la quema de grasa al menos 10 veces. Estoy convencida de que esto es</t>
-  </si>
-  <si>
-    <t>la mejor solucion que existe hoy en día en la nutrición moderna.</t>
-  </si>
-  <si>
-    <t>Y lo probé yo misma y logré resultados increíbles sin dañar mi salud. Opino que</t>
-  </si>
-  <si>
-    <t>45 kg en dos meses es un éxito!</t>
-  </si>
-  <si>
-    <t>Así es como se ve la cantante ahora :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ </t>
-  </si>
-  <si>
-    <t>Bebí Slimagic por las mañanas con un vaso de agua.</t>
-  </si>
-  <si>
-    <t>. Y después de una semana me sorprendi gratamente con los resultados. Mi energía estaba al máximo, y al mismo tiempo no tenía hambre y no me agotaba con el entrenamiento. Una semana después, pesé y ya había perdido 4 kg. Continué tomando gotas por las mañanas y realizaba mis actividades diarias y el peso desaparecia por sí solo. En la cuarta semana estaba extasiada,</t>
-  </si>
-  <si>
-    <t>mi peso disminuyó en 14 kg</t>
-  </si>
-  <si>
-    <t>. ¡Después de dos meses de tratamiento, peso 45 kilogramos menos! Estoy muy contento de poder compartir mis logros con ustedes, y aún más contento de poder contarles cómo lo logré. ¡Sé saludable y cuida tu salud! ” entonces Adele termina su publicación.</t>
-  </si>
-  <si>
-    <t>Slimagic recibió la certificación en Grecia, y hasta que aparezca en las farmacias, la forma más confiable de comprar este producto es pedirlo en el sitio web oficial del proveedor. Esto garantiza su calidad y lo mantendrá alejado de las falsificaciones.</t>
-  </si>
-  <si>
-    <t>Para completar una solicitud, simplemente introduzca su nombre y apellido y número de teléfono para comunicarse</t>
-  </si>
-  <si>
-    <t>en el sitio web oficial del producto "SLIMAGIC"</t>
-  </si>
-  <si>
-    <t>y espere la llamada del encargado para confirmar el pedido</t>
-  </si>
-  <si>
-    <t>Lee también ...</t>
-  </si>
-  <si>
-    <t>¿Cuál es tu argumento más fuerte para cuidarte?</t>
-  </si>
-  <si>
-    <t>Bloque de Color verano 2020: cómo usar la tendencia de la moda en la nueva temporada</t>
-  </si>
-  <si>
-    <t>Disfruta de un spa en casa: 4 recetas de máscaras y exfoliantes</t>
-  </si>
-  <si>
-    <t>cómo elegir y qué ponerse con la falda más elegante de la temporada</t>
-  </si>
-  <si>
-    <t>Remedios de calidad para el acné</t>
-  </si>
-  <si>
-    <t>¿A quién ayudar durante la cuarentena?</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>enviar</t>
-  </si>
-  <si>
-    <t>Diana Arrias</t>
-  </si>
-  <si>
-    <t>¡Oh, qué bien hecho, ha cambiado más allá del reconocimiento!!! La adoro)</t>
-  </si>
-  <si>
-    <t>Responder</t>
-  </si>
-  <si>
-    <t>Ольга Распекаева</t>
-  </si>
-  <si>
-    <t>Я смогла похудеть на 31 кг Мой вес составлял 94 кг Я помню как мне было тяжело в начале, а получится или нет, а это эффективно или нет. Сложно, когда тебя не поддерживают, особенно, когда твой вес огромный, но "SLIMAGIC" сжег все килограммы, никак не ожидала таких результатов!</t>
-  </si>
-  <si>
-    <t>Nerea Villabuena</t>
-  </si>
-  <si>
-    <t>Ya escuché sobre estas gotas e incluso las ordené. Las estoy tomando durante una semana y no lo creerán, ¡en estos 7 días bajé 3 kg y solo quedan otros 18! ¡Tendré éxito! Seguramente :)</t>
-  </si>
-  <si>
-    <t>Consuelo Navarro</t>
-  </si>
-  <si>
-    <t>¡Debemos intentarlo si Adele tuvo éxito!</t>
-  </si>
-  <si>
-    <t>Elisa Marquez</t>
-  </si>
-  <si>
-    <t>Estoy en shock !!! Esta mujer es ella, no lo puedo creer , ¿sera posible?</t>
-  </si>
-  <si>
-    <t>Adriana Muñoz</t>
-  </si>
-  <si>
-    <t>Sí, probablemente hizo una cirujia .No ayuda, probé estas gotas.  Embuste y mentira.</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t>Hola, Adriana y gracias por el comentario. Esta es una declaración muy extraña, ya que nuestro producto tiene todas las certificaciones y ha pasado pruebas clinicas. Después de consultar con nuestros especialistas, le recomendamos que revise su dieta diaria. Tal vez cuando lo toma, inconscientemente ha comenzado  comer de mas? Entonces la falta de progreso es explicable: ¿el producto ayuda, pero usted no hace un curso de tratamiento completo y no sigue las instrucciones? Gracias de nuevo por su comentario y que tenga un buen día.</t>
-  </si>
-  <si>
-    <t>Victoria Garcia</t>
-  </si>
-  <si>
-    <t>Comprobado, realmente comencé a comer más(((</t>
-  </si>
-  <si>
-    <t>Entonces le sugerimos comprar el producto, pero para un curso completo.</t>
-  </si>
-  <si>
-    <t>Tal y cual, ¡gracias, por sugerencia!)</t>
-  </si>
-  <si>
-    <t>Eleida Marco</t>
-  </si>
-  <si>
-    <t>¡También logré perder peso! ¡Les deseo mucha suerte a todos, apoyo mentalmente a los que luchan con el exceso de peso!</t>
-  </si>
-  <si>
-    <t>Laura Fernández</t>
-  </si>
-  <si>
-    <t>A mí, como Adele, me ayudó mucho este producto. Una gran diferencia entre lo que fui antes y despues. No esperaba que en mi edad pudiera perder casi 40 kg (hasta ahora -37 kg). ¡Mi bienestar es simplemente excelente! ¡Es una  solución es perfecta para las personas como yo ! Recomiendo SLIMAGIC definitivamente! Aquí están mis resultados:</t>
-  </si>
-  <si>
-    <t>Miguel  Ramos</t>
-  </si>
-  <si>
-    <t>Antes de tomar las gotas SLIMAGIC, pesaba 90 kg. En mi juventud siempre fui delgado, y con la edad, mi barriga y los costados aparecieron de alguna manera. A los 35 años, me di cuenta de que necesitaba ponerme en forma urgentemente. Durante casi un año me dediqué al entrenamiento, pero no pude lograr mi objetivo. Luego añadi "SLIMAGIC" a la dieta y en pocas semanas me convirti en la persona que fui. Ahora cuido de mi figura, siempre tengo un par de paquetes de "SLIMAGIC"guardados en casa.</t>
-  </si>
-  <si>
-    <t>Lupe Garcia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Después del parto, si se aumenta de peso, es necesario eliminarlo con urgencia, eso se logra en la cinta de correr durante varias horas, pero escuché que es muy dañino para las articulaciones, porque esencialmente estariamos saltando con sobrepeso, las articulaciones simplemente no pueden soportar tal ejercicio. Pero existe opcion de tomar "SLIMAGIC " como yo, es muy conveniente para recuperarse. Es extraño que no todos aplican este producto.
-</t>
-  </si>
-  <si>
-    <t>Maria Lara</t>
-  </si>
-  <si>
-    <t>También usé estas gotas. En solo 1 curso completo con "SLIMAGIC" perdi casi 30 kilos, cambios fueron enormes. Bueno, por supuesto que no he tragado pasteles, pero el resto no estaba limitado. Es algo cuando quiero patatas, como patatas.</t>
-  </si>
-  <si>
-    <t>Vanessa Burgos</t>
-  </si>
-  <si>
-    <t>¿El sitio web oficial del fabricante es el único lugar donde puedes comprar "SLIMAGIC" en nuestro país o también se vende en tiendas en línea?</t>
-  </si>
-  <si>
-    <t>Juan Soto</t>
-  </si>
-  <si>
-    <t>Vanessa, desafortunadamente sí, dado que las farmacias están tratando de sacar provecho de las personas y estamos tratando de ayudarlas con sus problemas de salud, se negaron a establecer el precio del fabricante, por lo que tenemos que vender por Internet porque por lo menos podemos establecer un precio que sea aceptable para ustedes.</t>
-  </si>
-  <si>
-    <t>Maria Lopez</t>
-  </si>
-  <si>
-    <t>Genial y si realmente funciona. Aunque soy escéptica. Y puedo creer más en el poder de un coctel que en unas gotas. Pero haré de todo para cuidar de la figura, las ordenaré.</t>
-  </si>
-  <si>
-    <t>Carmen Marquez</t>
-  </si>
-  <si>
-    <t>He estado bebiendo "SLIMAGIC" durante mucho tiempo. También tuve problemas con el peso, pero ahora ni siquiera lo pienso, como de todo y si aumento de peso, uso el curso completo y vuelvo a la normalidad.</t>
-  </si>
-  <si>
-    <t>Raquel Bueno</t>
-  </si>
-  <si>
-    <t>TENGO 97 KG. NO SÉ CÓMO COMBATIR MI SOBREPESO. NO QUIERO LLEGAR A TENER LOS 100 KG. ¿QUÉ HAGO ????? ¡¡¡¡¡¡¡AUXILIO!!!!!!! ¿PUEDO COMPRAR EN UN FARMACIA SLIMAGIC?</t>
-  </si>
-  <si>
-    <t>Mariana Prado</t>
-  </si>
-  <si>
-    <t>Raquel, bueno, por supuesto, puedes buscar, pero yo solo lo encontré en el sitio web oficial del fabricante, y aun así es más confiable y seguro ademas puedes obtener un descuento.</t>
-  </si>
-  <si>
-    <t>Buenas tardes, Raquel. Por el momento," SLIMAGIC " solo se puede comprar en nuestro sitio web oficial.</t>
-  </si>
-  <si>
-    <t>Recomendación</t>
-  </si>
-  <si>
-    <t>20+ fotos incómodas juveniles por las que la gente todavía se siente...</t>
-  </si>
-  <si>
-    <t>Mamá creó máscarillas (tapabocas) transparentes para poder leer los labios y descubrió que...</t>
-  </si>
-  <si>
-    <t>Una blogger fuertemente aplica photoshop sus fotos, pero la han descubierto, mostrando cómo ...</t>
-  </si>
-  <si>
-    <t>etiquetas</t>
-  </si>
-  <si>
-    <t>#Belleza</t>
-  </si>
-  <si>
-    <t>#Аdele</t>
-  </si>
-  <si>
-    <t>#Adelgazamiento</t>
-  </si>
-  <si>
-    <t>#Los famosos</t>
-  </si>
-  <si>
-    <t>#Historia</t>
-  </si>
-  <si>
-    <t>¿Qué chico estrella es el adecuado para ti?</t>
-  </si>
-  <si>
-    <t>pasar la encuesta</t>
-  </si>
-  <si>
-    <t>Deje un comentario</t>
-  </si>
 </sst>
 </file>
 
@@ -1005,13 +1005,13 @@
     </font>
     <font/>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1039,14 +1039,14 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1273,3331 +1273,3331 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="15">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="16">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="19">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="20">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
+    <row r="39" ht="18.0" customHeight="1">
+      <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="2" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" ht="18.0" customHeight="1">
-      <c r="A39" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3" t="s">
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3" t="s">
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="3" t="s">
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="3" t="s">
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="3" t="s">
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="3" t="s">
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="3" t="s">
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="3" t="s">
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="3" t="s">
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="3" t="s">
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="3" t="s">
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="3" t="s">
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="3" t="s">
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="3" t="s">
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="2" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="3" t="s">
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="3" t="s">
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="3" t="s">
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="3" t="s">
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="3" t="s">
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="3" t="s">
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="3" t="s">
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="3" t="s">
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="3" t="s">
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="3" t="s">
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="3" t="s">
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="3" t="s">
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="3" t="s">
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="3" t="s">
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="3" t="s">
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="3" t="s">
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="3" t="s">
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="3" t="s">
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="3" t="s">
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="3" t="s">
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="1" t="s">
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="1" t="s">
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="3" t="s">
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="3" t="s">
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="3" t="s">
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="3" t="s">
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="3" t="s">
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="3" t="s">
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="3" t="s">
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="3" t="s">
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="3" t="s">
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="3" t="s">
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="3" t="s">
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="3" t="s">
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="3" t="s">
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="3" t="s">
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="3" t="s">
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="3" t="s">
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="3" t="s">
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="3" t="s">
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="3" t="s">
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="3" t="s">
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="3" t="s">
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="3" t="s">
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="3" t="s">
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="3" t="s">
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="3" t="s">
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="3" t="s">
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="3" t="s">
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="3" t="s">
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="3" t="s">
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="3" t="s">
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="3" t="s">
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="3" t="s">
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="3" t="s">
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="3" t="s">
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="3" t="s">
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="3" t="s">
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="3" t="s">
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="3" t="s">
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="3" t="s">
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="3" t="s">
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="5"/>
+      <c r="A167" s="4"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="5"/>
+      <c r="A168" s="4"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="5"/>
+      <c r="A169" s="4"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="5"/>
+      <c r="A170" s="4"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="5"/>
+      <c r="A171" s="4"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="5"/>
+      <c r="A172" s="4"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="5"/>
+      <c r="A173" s="4"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="5"/>
+      <c r="A174" s="4"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="5"/>
+      <c r="A175" s="4"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="5"/>
+      <c r="A176" s="4"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="5"/>
+      <c r="A177" s="4"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="5"/>
+      <c r="A178" s="4"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="5"/>
+      <c r="A179" s="4"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="5"/>
+      <c r="A180" s="4"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="5"/>
+      <c r="A181" s="4"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="5"/>
+      <c r="A182" s="4"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="5"/>
+      <c r="A183" s="4"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="5"/>
+      <c r="A184" s="4"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="5"/>
+      <c r="A185" s="4"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="5"/>
+      <c r="A186" s="4"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="5"/>
+      <c r="A187" s="4"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="5"/>
+      <c r="A188" s="4"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="5"/>
+      <c r="A189" s="4"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="5"/>
+      <c r="A190" s="4"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="5"/>
+      <c r="A191" s="4"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="5"/>
+      <c r="A192" s="4"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="5"/>
+      <c r="A193" s="4"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="5"/>
+      <c r="A194" s="4"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="5"/>
+      <c r="A195" s="4"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="5"/>
+      <c r="A196" s="4"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="5"/>
+      <c r="A197" s="4"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="5"/>
+      <c r="A198" s="4"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="5"/>
+      <c r="A199" s="4"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="5"/>
+      <c r="A200" s="4"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="5"/>
+      <c r="A201" s="4"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="5"/>
+      <c r="A202" s="4"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="5"/>
+      <c r="A203" s="4"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="5"/>
+      <c r="A204" s="4"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="5"/>
+      <c r="A205" s="4"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="5"/>
+      <c r="A206" s="4"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="5"/>
+      <c r="A207" s="4"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="5"/>
+      <c r="A208" s="4"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="5"/>
+      <c r="A209" s="4"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="5"/>
+      <c r="A210" s="4"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="5"/>
+      <c r="A211" s="4"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="5"/>
+      <c r="A212" s="4"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="5"/>
+      <c r="A213" s="4"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="5"/>
+      <c r="A214" s="4"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="5"/>
+      <c r="A215" s="4"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="5"/>
+      <c r="A216" s="4"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="5"/>
+      <c r="A217" s="4"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="5"/>
+      <c r="A218" s="4"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="5"/>
+      <c r="A219" s="4"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="5"/>
+      <c r="A220" s="4"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="5"/>
+      <c r="A221" s="4"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="5"/>
+      <c r="A222" s="4"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="5"/>
+      <c r="A223" s="4"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="5"/>
+      <c r="A224" s="4"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="5"/>
+      <c r="A225" s="4"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="5"/>
+      <c r="A226" s="4"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="5"/>
+      <c r="A227" s="4"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="5"/>
+      <c r="A228" s="4"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="5"/>
+      <c r="A229" s="4"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="5"/>
+      <c r="A230" s="4"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="5"/>
+      <c r="A231" s="4"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="5"/>
+      <c r="A232" s="4"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="5"/>
+      <c r="A233" s="4"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="5"/>
+      <c r="A234" s="4"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="5"/>
+      <c r="A235" s="4"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="5"/>
+      <c r="A236" s="4"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="5"/>
+      <c r="A237" s="4"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="5"/>
+      <c r="A238" s="4"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="5"/>
+      <c r="A239" s="4"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="5"/>
+      <c r="A240" s="4"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="5"/>
+      <c r="A241" s="4"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="5"/>
+      <c r="A242" s="4"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="5"/>
+      <c r="A243" s="4"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="5"/>
+      <c r="A244" s="4"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="5"/>
+      <c r="A245" s="4"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="5"/>
+      <c r="A246" s="4"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="5"/>
+      <c r="A247" s="4"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="5"/>
+      <c r="A248" s="4"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="5"/>
+      <c r="A249" s="4"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="5"/>
+      <c r="A250" s="4"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="5"/>
+      <c r="A251" s="4"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="5"/>
+      <c r="A252" s="4"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="5"/>
+      <c r="A253" s="4"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="5"/>
+      <c r="A254" s="4"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="5"/>
+      <c r="A255" s="4"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="5"/>
+      <c r="A256" s="4"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="5"/>
+      <c r="A257" s="4"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="5"/>
+      <c r="A258" s="4"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="5"/>
+      <c r="A259" s="4"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="5"/>
+      <c r="A260" s="4"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="5"/>
+      <c r="A261" s="4"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="5"/>
+      <c r="A262" s="4"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="5"/>
+      <c r="A263" s="4"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="5"/>
+      <c r="A264" s="4"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="5"/>
+      <c r="A265" s="4"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="5"/>
+      <c r="A266" s="4"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="5"/>
+      <c r="A267" s="4"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="5"/>
+      <c r="A268" s="4"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="5"/>
+      <c r="A269" s="4"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="5"/>
+      <c r="A270" s="4"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="5"/>
+      <c r="A271" s="4"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="5"/>
+      <c r="A272" s="4"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="5"/>
+      <c r="A273" s="4"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="5"/>
+      <c r="A274" s="4"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="5"/>
+      <c r="A275" s="4"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="5"/>
+      <c r="A276" s="4"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="5"/>
+      <c r="A277" s="4"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="5"/>
+      <c r="A278" s="4"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="5"/>
+      <c r="A279" s="4"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="5"/>
+      <c r="A280" s="4"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="5"/>
+      <c r="A281" s="4"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="5"/>
+      <c r="A282" s="4"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="5"/>
+      <c r="A283" s="4"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="5"/>
+      <c r="A284" s="4"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="5"/>
+      <c r="A285" s="4"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="5"/>
+      <c r="A286" s="4"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="5"/>
+      <c r="A287" s="4"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="5"/>
+      <c r="A288" s="4"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="5"/>
+      <c r="A289" s="4"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="5"/>
+      <c r="A290" s="4"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="5"/>
+      <c r="A291" s="4"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="5"/>
+      <c r="A292" s="4"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="5"/>
+      <c r="A293" s="4"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="5"/>
+      <c r="A294" s="4"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="5"/>
+      <c r="A295" s="4"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="5"/>
+      <c r="A296" s="4"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="5"/>
+      <c r="A297" s="4"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="5"/>
+      <c r="A298" s="4"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="5"/>
+      <c r="A299" s="4"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="5"/>
+      <c r="A300" s="4"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="5"/>
+      <c r="A301" s="4"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="5"/>
+      <c r="A302" s="4"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="5"/>
+      <c r="A303" s="4"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="5"/>
+      <c r="A304" s="4"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="5"/>
+      <c r="A305" s="4"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="5"/>
+      <c r="A306" s="4"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="5"/>
+      <c r="A307" s="4"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="5"/>
+      <c r="A308" s="4"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="5"/>
+      <c r="A309" s="4"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="5"/>
+      <c r="A310" s="4"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="5"/>
+      <c r="A311" s="4"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="5"/>
+      <c r="A312" s="4"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="5"/>
+      <c r="A313" s="4"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="5"/>
+      <c r="A314" s="4"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="5"/>
+      <c r="A315" s="4"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="5"/>
+      <c r="A316" s="4"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="5"/>
+      <c r="A317" s="4"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="5"/>
+      <c r="A318" s="4"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="5"/>
+      <c r="A319" s="4"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="5"/>
+      <c r="A320" s="4"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="5"/>
+      <c r="A321" s="4"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="5"/>
+      <c r="A322" s="4"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="5"/>
+      <c r="A323" s="4"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="5"/>
+      <c r="A324" s="4"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="5"/>
+      <c r="A325" s="4"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="5"/>
+      <c r="A326" s="4"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="5"/>
+      <c r="A327" s="4"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="5"/>
+      <c r="A328" s="4"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="5"/>
+      <c r="A329" s="4"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="5"/>
+      <c r="A330" s="4"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="5"/>
+      <c r="A331" s="4"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="5"/>
+      <c r="A332" s="4"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="5"/>
+      <c r="A333" s="4"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="5"/>
+      <c r="A334" s="4"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="5"/>
+      <c r="A335" s="4"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="5"/>
+      <c r="A336" s="4"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="5"/>
+      <c r="A337" s="4"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="5"/>
+      <c r="A338" s="4"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="5"/>
+      <c r="A339" s="4"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="5"/>
+      <c r="A340" s="4"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="5"/>
+      <c r="A341" s="4"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="5"/>
+      <c r="A342" s="4"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="5"/>
+      <c r="A343" s="4"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="5"/>
+      <c r="A344" s="4"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="5"/>
+      <c r="A345" s="4"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="5"/>
+      <c r="A346" s="4"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="5"/>
+      <c r="A347" s="4"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="5"/>
+      <c r="A348" s="4"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="5"/>
+      <c r="A349" s="4"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="5"/>
+      <c r="A350" s="4"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="5"/>
+      <c r="A351" s="4"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="5"/>
+      <c r="A352" s="4"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="5"/>
+      <c r="A353" s="4"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="5"/>
+      <c r="A354" s="4"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="5"/>
+      <c r="A355" s="4"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="5"/>
+      <c r="A356" s="4"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="5"/>
+      <c r="A357" s="4"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="5"/>
+      <c r="A358" s="4"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="5"/>
+      <c r="A359" s="4"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="5"/>
+      <c r="A360" s="4"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="5"/>
+      <c r="A361" s="4"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="5"/>
+      <c r="A362" s="4"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="5"/>
+      <c r="A363" s="4"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="5"/>
+      <c r="A364" s="4"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="5"/>
+      <c r="A365" s="4"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="5"/>
+      <c r="A366" s="4"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="5"/>
+      <c r="A367" s="4"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="5"/>
+      <c r="A368" s="4"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="5"/>
+      <c r="A369" s="4"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="5"/>
+      <c r="A370" s="4"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="5"/>
+      <c r="A371" s="4"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="5"/>
+      <c r="A372" s="4"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="5"/>
+      <c r="A373" s="4"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="5"/>
+      <c r="A374" s="4"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="5"/>
+      <c r="A375" s="4"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="5"/>
+      <c r="A376" s="4"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="5"/>
+      <c r="A377" s="4"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="5"/>
+      <c r="A378" s="4"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="5"/>
+      <c r="A379" s="4"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="5"/>
+      <c r="A380" s="4"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="5"/>
+      <c r="A381" s="4"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="5"/>
+      <c r="A382" s="4"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="5"/>
+      <c r="A383" s="4"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="5"/>
+      <c r="A384" s="4"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="5"/>
+      <c r="A385" s="4"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="5"/>
+      <c r="A386" s="4"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="5"/>
+      <c r="A387" s="4"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="5"/>
+      <c r="A388" s="4"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="5"/>
+      <c r="A389" s="4"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="5"/>
+      <c r="A390" s="4"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="5"/>
+      <c r="A391" s="4"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="5"/>
+      <c r="A392" s="4"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="5"/>
+      <c r="A393" s="4"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="5"/>
+      <c r="A394" s="4"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="5"/>
+      <c r="A395" s="4"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="5"/>
+      <c r="A396" s="4"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="5"/>
+      <c r="A397" s="4"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="5"/>
+      <c r="A398" s="4"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="5"/>
+      <c r="A399" s="4"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="5"/>
+      <c r="A400" s="4"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="5"/>
+      <c r="A401" s="4"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="5"/>
+      <c r="A402" s="4"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="5"/>
+      <c r="A403" s="4"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="5"/>
+      <c r="A404" s="4"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="5"/>
+      <c r="A405" s="4"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="5"/>
+      <c r="A406" s="4"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="5"/>
+      <c r="A407" s="4"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="5"/>
+      <c r="A408" s="4"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="5"/>
+      <c r="A409" s="4"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="5"/>
+      <c r="A410" s="4"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="5"/>
+      <c r="A411" s="4"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="5"/>
+      <c r="A412" s="4"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="5"/>
+      <c r="A413" s="4"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="5"/>
+      <c r="A414" s="4"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="5"/>
+      <c r="A415" s="4"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="5"/>
+      <c r="A416" s="4"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="5"/>
+      <c r="A417" s="4"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="5"/>
+      <c r="A418" s="4"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="5"/>
+      <c r="A419" s="4"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="5"/>
+      <c r="A420" s="4"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="5"/>
+      <c r="A421" s="4"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="5"/>
+      <c r="A422" s="4"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="5"/>
+      <c r="A423" s="4"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="5"/>
+      <c r="A424" s="4"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="5"/>
+      <c r="A425" s="4"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="5"/>
+      <c r="A426" s="4"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="5"/>
+      <c r="A427" s="4"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="5"/>
+      <c r="A428" s="4"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="5"/>
+      <c r="A429" s="4"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="5"/>
+      <c r="A430" s="4"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="5"/>
+      <c r="A431" s="4"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="5"/>
+      <c r="A432" s="4"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="5"/>
+      <c r="A433" s="4"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="5"/>
+      <c r="A434" s="4"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="5"/>
+      <c r="A435" s="4"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="5"/>
+      <c r="A436" s="4"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="5"/>
+      <c r="A437" s="4"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="5"/>
+      <c r="A438" s="4"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="5"/>
+      <c r="A439" s="4"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="5"/>
+      <c r="A440" s="4"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="5"/>
+      <c r="A441" s="4"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="5"/>
+      <c r="A442" s="4"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="5"/>
+      <c r="A443" s="4"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="5"/>
+      <c r="A444" s="4"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="5"/>
+      <c r="A445" s="4"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="5"/>
+      <c r="A446" s="4"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="5"/>
+      <c r="A447" s="4"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="5"/>
+      <c r="A448" s="4"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="5"/>
+      <c r="A449" s="4"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="5"/>
+      <c r="A450" s="4"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="5"/>
+      <c r="A451" s="4"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="5"/>
+      <c r="A452" s="4"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="5"/>
+      <c r="A453" s="4"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="5"/>
+      <c r="A454" s="4"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="5"/>
+      <c r="A455" s="4"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="5"/>
+      <c r="A456" s="4"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="5"/>
+      <c r="A457" s="4"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="5"/>
+      <c r="A458" s="4"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="5"/>
+      <c r="A459" s="4"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="5"/>
+      <c r="A460" s="4"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="5"/>
+      <c r="A461" s="4"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="5"/>
+      <c r="A462" s="4"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="5"/>
+      <c r="A463" s="4"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="5"/>
+      <c r="A464" s="4"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="5"/>
+      <c r="A465" s="4"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="5"/>
+      <c r="A466" s="4"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="5"/>
+      <c r="A467" s="4"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="5"/>
+      <c r="A468" s="4"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="5"/>
+      <c r="A469" s="4"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="5"/>
+      <c r="A470" s="4"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="5"/>
+      <c r="A471" s="4"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="5"/>
+      <c r="A472" s="4"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="5"/>
+      <c r="A473" s="4"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="5"/>
+      <c r="A474" s="4"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="5"/>
+      <c r="A475" s="4"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="5"/>
+      <c r="A476" s="4"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="5"/>
+      <c r="A477" s="4"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="5"/>
+      <c r="A478" s="4"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="5"/>
+      <c r="A479" s="4"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="5"/>
+      <c r="A480" s="4"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="5"/>
+      <c r="A481" s="4"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="5"/>
+      <c r="A482" s="4"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="5"/>
+      <c r="A483" s="4"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="5"/>
+      <c r="A484" s="4"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="5"/>
+      <c r="A485" s="4"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="5"/>
+      <c r="A486" s="4"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="5"/>
+      <c r="A487" s="4"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="5"/>
+      <c r="A488" s="4"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="5"/>
+      <c r="A489" s="4"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="5"/>
+      <c r="A490" s="4"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="5"/>
+      <c r="A491" s="4"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="5"/>
+      <c r="A492" s="4"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="5"/>
+      <c r="A493" s="4"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="5"/>
+      <c r="A494" s="4"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="5"/>
+      <c r="A495" s="4"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="5"/>
+      <c r="A496" s="4"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="5"/>
+      <c r="A497" s="4"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="5"/>
+      <c r="A498" s="4"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="5"/>
+      <c r="A499" s="4"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="5"/>
+      <c r="A500" s="4"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="5"/>
+      <c r="A501" s="4"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="5"/>
+      <c r="A502" s="4"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="5"/>
+      <c r="A503" s="4"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="5"/>
+      <c r="A504" s="4"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="5"/>
+      <c r="A505" s="4"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="5"/>
+      <c r="A506" s="4"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="5"/>
+      <c r="A507" s="4"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="5"/>
+      <c r="A508" s="4"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="5"/>
+      <c r="A509" s="4"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="5"/>
+      <c r="A510" s="4"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="5"/>
+      <c r="A511" s="4"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="5"/>
+      <c r="A512" s="4"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="5"/>
+      <c r="A513" s="4"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="5"/>
+      <c r="A514" s="4"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="5"/>
+      <c r="A515" s="4"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="5"/>
+      <c r="A516" s="4"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="5"/>
+      <c r="A517" s="4"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="5"/>
+      <c r="A518" s="4"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="5"/>
+      <c r="A519" s="4"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="5"/>
+      <c r="A520" s="4"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="5"/>
+      <c r="A521" s="4"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="5"/>
+      <c r="A522" s="4"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="5"/>
+      <c r="A523" s="4"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="5"/>
+      <c r="A524" s="4"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="5"/>
+      <c r="A525" s="4"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="5"/>
+      <c r="A526" s="4"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="5"/>
+      <c r="A527" s="4"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="5"/>
+      <c r="A528" s="4"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="5"/>
+      <c r="A529" s="4"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="5"/>
+      <c r="A530" s="4"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="5"/>
+      <c r="A531" s="4"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="5"/>
+      <c r="A532" s="4"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="5"/>
+      <c r="A533" s="4"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="5"/>
+      <c r="A534" s="4"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="5"/>
+      <c r="A535" s="4"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="5"/>
+      <c r="A536" s="4"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="5"/>
+      <c r="A537" s="4"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="5"/>
+      <c r="A538" s="4"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="5"/>
+      <c r="A539" s="4"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="5"/>
+      <c r="A540" s="4"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="5"/>
+      <c r="A541" s="4"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="5"/>
+      <c r="A542" s="4"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="5"/>
+      <c r="A543" s="4"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="5"/>
+      <c r="A544" s="4"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="5"/>
+      <c r="A545" s="4"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="5"/>
+      <c r="A546" s="4"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="5"/>
+      <c r="A547" s="4"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="5"/>
+      <c r="A548" s="4"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="5"/>
+      <c r="A549" s="4"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="5"/>
+      <c r="A550" s="4"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="5"/>
+      <c r="A551" s="4"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="5"/>
+      <c r="A552" s="4"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="5"/>
+      <c r="A553" s="4"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="5"/>
+      <c r="A554" s="4"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="5"/>
+      <c r="A555" s="4"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="5"/>
+      <c r="A556" s="4"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="5"/>
+      <c r="A557" s="4"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="5"/>
+      <c r="A558" s="4"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="5"/>
+      <c r="A559" s="4"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="5"/>
+      <c r="A560" s="4"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="5"/>
+      <c r="A561" s="4"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="5"/>
+      <c r="A562" s="4"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="5"/>
+      <c r="A563" s="4"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="5"/>
+      <c r="A564" s="4"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="5"/>
+      <c r="A565" s="4"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="5"/>
+      <c r="A566" s="4"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="5"/>
+      <c r="A567" s="4"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="5"/>
+      <c r="A568" s="4"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="5"/>
+      <c r="A569" s="4"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="5"/>
+      <c r="A570" s="4"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="5"/>
+      <c r="A571" s="4"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="5"/>
+      <c r="A572" s="4"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="5"/>
+      <c r="A573" s="4"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="5"/>
+      <c r="A574" s="4"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="5"/>
+      <c r="A575" s="4"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="5"/>
+      <c r="A576" s="4"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="5"/>
+      <c r="A577" s="4"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="5"/>
+      <c r="A578" s="4"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="5"/>
+      <c r="A579" s="4"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="5"/>
+      <c r="A580" s="4"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="5"/>
+      <c r="A581" s="4"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="5"/>
+      <c r="A582" s="4"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="5"/>
+      <c r="A583" s="4"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="5"/>
+      <c r="A584" s="4"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="5"/>
+      <c r="A585" s="4"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="5"/>
+      <c r="A586" s="4"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="5"/>
+      <c r="A587" s="4"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="5"/>
+      <c r="A588" s="4"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="5"/>
+      <c r="A589" s="4"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="5"/>
+      <c r="A590" s="4"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="5"/>
+      <c r="A591" s="4"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="5"/>
+      <c r="A592" s="4"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="5"/>
+      <c r="A593" s="4"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="5"/>
+      <c r="A594" s="4"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="5"/>
+      <c r="A595" s="4"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="5"/>
+      <c r="A596" s="4"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="5"/>
+      <c r="A597" s="4"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="5"/>
+      <c r="A598" s="4"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="5"/>
+      <c r="A599" s="4"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="5"/>
+      <c r="A600" s="4"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="5"/>
+      <c r="A601" s="4"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="5"/>
+      <c r="A602" s="4"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="5"/>
+      <c r="A603" s="4"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="5"/>
+      <c r="A604" s="4"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="5"/>
+      <c r="A605" s="4"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="5"/>
+      <c r="A606" s="4"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="5"/>
+      <c r="A607" s="4"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="5"/>
+      <c r="A608" s="4"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="5"/>
+      <c r="A609" s="4"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="5"/>
+      <c r="A610" s="4"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="5"/>
+      <c r="A611" s="4"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="5"/>
+      <c r="A612" s="4"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="5"/>
+      <c r="A613" s="4"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="5"/>
+      <c r="A614" s="4"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="5"/>
+      <c r="A615" s="4"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="5"/>
+      <c r="A616" s="4"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="5"/>
+      <c r="A617" s="4"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="5"/>
+      <c r="A618" s="4"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="5"/>
+      <c r="A619" s="4"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="5"/>
+      <c r="A620" s="4"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="5"/>
+      <c r="A621" s="4"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="5"/>
+      <c r="A622" s="4"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="5"/>
+      <c r="A623" s="4"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="5"/>
+      <c r="A624" s="4"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="5"/>
+      <c r="A625" s="4"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="5"/>
+      <c r="A626" s="4"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="5"/>
+      <c r="A627" s="4"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="5"/>
+      <c r="A628" s="4"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="5"/>
+      <c r="A629" s="4"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="5"/>
+      <c r="A630" s="4"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="5"/>
+      <c r="A631" s="4"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="5"/>
+      <c r="A632" s="4"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="5"/>
+      <c r="A633" s="4"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="5"/>
+      <c r="A634" s="4"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="5"/>
+      <c r="A635" s="4"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="5"/>
+      <c r="A636" s="4"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="5"/>
+      <c r="A637" s="4"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="5"/>
+      <c r="A638" s="4"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="5"/>
+      <c r="A639" s="4"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="5"/>
+      <c r="A640" s="4"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="5"/>
+      <c r="A641" s="4"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="5"/>
+      <c r="A642" s="4"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="5"/>
+      <c r="A643" s="4"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="5"/>
+      <c r="A644" s="4"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="5"/>
+      <c r="A645" s="4"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="5"/>
+      <c r="A646" s="4"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="5"/>
+      <c r="A647" s="4"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="5"/>
+      <c r="A648" s="4"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="5"/>
+      <c r="A649" s="4"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="5"/>
+      <c r="A650" s="4"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="5"/>
+      <c r="A651" s="4"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="5"/>
+      <c r="A652" s="4"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="5"/>
+      <c r="A653" s="4"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="5"/>
+      <c r="A654" s="4"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="5"/>
+      <c r="A655" s="4"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="5"/>
+      <c r="A656" s="4"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="5"/>
+      <c r="A657" s="4"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="5"/>
+      <c r="A658" s="4"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="5"/>
+      <c r="A659" s="4"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="5"/>
+      <c r="A660" s="4"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="5"/>
+      <c r="A661" s="4"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="5"/>
+      <c r="A662" s="4"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="5"/>
+      <c r="A663" s="4"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="5"/>
+      <c r="A664" s="4"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="5"/>
+      <c r="A665" s="4"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="5"/>
+      <c r="A666" s="4"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="5"/>
+      <c r="A667" s="4"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="5"/>
+      <c r="A668" s="4"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="5"/>
+      <c r="A669" s="4"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="5"/>
+      <c r="A670" s="4"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="5"/>
+      <c r="A671" s="4"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="5"/>
+      <c r="A672" s="4"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="5"/>
+      <c r="A673" s="4"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="5"/>
+      <c r="A674" s="4"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="5"/>
+      <c r="A675" s="4"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="5"/>
+      <c r="A676" s="4"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="5"/>
+      <c r="A677" s="4"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="5"/>
+      <c r="A678" s="4"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="5"/>
+      <c r="A679" s="4"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="5"/>
+      <c r="A680" s="4"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="5"/>
+      <c r="A681" s="4"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="5"/>
+      <c r="A682" s="4"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="5"/>
+      <c r="A683" s="4"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="5"/>
+      <c r="A684" s="4"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="5"/>
+      <c r="A685" s="4"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="5"/>
+      <c r="A686" s="4"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="5"/>
+      <c r="A687" s="4"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="5"/>
+      <c r="A688" s="4"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="5"/>
+      <c r="A689" s="4"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="5"/>
+      <c r="A690" s="4"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="5"/>
+      <c r="A691" s="4"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="5"/>
+      <c r="A692" s="4"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="5"/>
+      <c r="A693" s="4"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="5"/>
+      <c r="A694" s="4"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="5"/>
+      <c r="A695" s="4"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="5"/>
+      <c r="A696" s="4"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="5"/>
+      <c r="A697" s="4"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="5"/>
+      <c r="A698" s="4"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="5"/>
+      <c r="A699" s="4"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="5"/>
+      <c r="A700" s="4"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="5"/>
+      <c r="A701" s="4"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="5"/>
+      <c r="A702" s="4"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="5"/>
+      <c r="A703" s="4"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="5"/>
+      <c r="A704" s="4"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="5"/>
+      <c r="A705" s="4"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="5"/>
+      <c r="A706" s="4"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="5"/>
+      <c r="A707" s="4"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="5"/>
+      <c r="A708" s="4"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="5"/>
+      <c r="A709" s="4"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="5"/>
+      <c r="A710" s="4"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="5"/>
+      <c r="A711" s="4"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="5"/>
+      <c r="A712" s="4"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="5"/>
+      <c r="A713" s="4"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="5"/>
+      <c r="A714" s="4"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="5"/>
+      <c r="A715" s="4"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="5"/>
+      <c r="A716" s="4"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="5"/>
+      <c r="A717" s="4"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="5"/>
+      <c r="A718" s="4"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="5"/>
+      <c r="A719" s="4"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="5"/>
+      <c r="A720" s="4"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="5"/>
+      <c r="A721" s="4"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="5"/>
+      <c r="A722" s="4"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="5"/>
+      <c r="A723" s="4"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="5"/>
+      <c r="A724" s="4"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="5"/>
+      <c r="A725" s="4"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="5"/>
+      <c r="A726" s="4"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="5"/>
+      <c r="A727" s="4"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="5"/>
+      <c r="A728" s="4"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="5"/>
+      <c r="A729" s="4"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="5"/>
+      <c r="A730" s="4"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="5"/>
+      <c r="A731" s="4"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="5"/>
+      <c r="A732" s="4"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="5"/>
+      <c r="A733" s="4"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="5"/>
+      <c r="A734" s="4"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="5"/>
+      <c r="A735" s="4"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="5"/>
+      <c r="A736" s="4"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="5"/>
+      <c r="A737" s="4"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="5"/>
+      <c r="A738" s="4"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="5"/>
+      <c r="A739" s="4"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="5"/>
+      <c r="A740" s="4"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="5"/>
+      <c r="A741" s="4"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="5"/>
+      <c r="A742" s="4"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="5"/>
+      <c r="A743" s="4"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="5"/>
+      <c r="A744" s="4"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="5"/>
+      <c r="A745" s="4"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="5"/>
+      <c r="A746" s="4"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="5"/>
+      <c r="A747" s="4"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="5"/>
+      <c r="A748" s="4"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="5"/>
+      <c r="A749" s="4"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="5"/>
+      <c r="A750" s="4"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="5"/>
+      <c r="A751" s="4"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="5"/>
+      <c r="A752" s="4"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="5"/>
+      <c r="A753" s="4"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="5"/>
+      <c r="A754" s="4"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="5"/>
+      <c r="A755" s="4"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="5"/>
+      <c r="A756" s="4"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="5"/>
+      <c r="A757" s="4"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="5"/>
+      <c r="A758" s="4"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="5"/>
+      <c r="A759" s="4"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="5"/>
+      <c r="A760" s="4"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="5"/>
+      <c r="A761" s="4"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="5"/>
+      <c r="A762" s="4"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="5"/>
+      <c r="A763" s="4"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="5"/>
+      <c r="A764" s="4"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="5"/>
+      <c r="A765" s="4"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="5"/>
+      <c r="A766" s="4"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="5"/>
+      <c r="A767" s="4"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="5"/>
+      <c r="A768" s="4"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="5"/>
+      <c r="A769" s="4"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="5"/>
+      <c r="A770" s="4"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="5"/>
+      <c r="A771" s="4"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="5"/>
+      <c r="A772" s="4"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="5"/>
+      <c r="A773" s="4"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="5"/>
+      <c r="A774" s="4"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="5"/>
+      <c r="A775" s="4"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="5"/>
+      <c r="A776" s="4"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="5"/>
+      <c r="A777" s="4"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="5"/>
+      <c r="A778" s="4"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="5"/>
+      <c r="A779" s="4"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="5"/>
+      <c r="A780" s="4"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="5"/>
+      <c r="A781" s="4"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="5"/>
+      <c r="A782" s="4"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="5"/>
+      <c r="A783" s="4"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="5"/>
+      <c r="A784" s="4"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="5"/>
+      <c r="A785" s="4"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="5"/>
+      <c r="A786" s="4"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="5"/>
+      <c r="A787" s="4"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="5"/>
+      <c r="A788" s="4"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="5"/>
+      <c r="A789" s="4"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="5"/>
+      <c r="A790" s="4"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="5"/>
+      <c r="A791" s="4"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="5"/>
+      <c r="A792" s="4"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="5"/>
+      <c r="A793" s="4"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="5"/>
+      <c r="A794" s="4"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="5"/>
+      <c r="A795" s="4"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="5"/>
+      <c r="A796" s="4"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="5"/>
+      <c r="A797" s="4"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="5"/>
+      <c r="A798" s="4"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="5"/>
+      <c r="A799" s="4"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="5"/>
+      <c r="A800" s="4"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="5"/>
+      <c r="A801" s="4"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="5"/>
+      <c r="A802" s="4"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="5"/>
+      <c r="A803" s="4"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="5"/>
+      <c r="A804" s="4"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="5"/>
+      <c r="A805" s="4"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="5"/>
+      <c r="A806" s="4"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="5"/>
+      <c r="A807" s="4"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="5"/>
+      <c r="A808" s="4"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="5"/>
+      <c r="A809" s="4"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="5"/>
+      <c r="A810" s="4"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="5"/>
+      <c r="A811" s="4"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="5"/>
+      <c r="A812" s="4"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="5"/>
+      <c r="A813" s="4"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="5"/>
+      <c r="A814" s="4"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="5"/>
+      <c r="A815" s="4"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="5"/>
+      <c r="A816" s="4"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="5"/>
+      <c r="A817" s="4"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="5"/>
+      <c r="A818" s="4"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="5"/>
+      <c r="A819" s="4"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="5"/>
+      <c r="A820" s="4"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="5"/>
+      <c r="A821" s="4"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="5"/>
+      <c r="A822" s="4"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="5"/>
+      <c r="A823" s="4"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="5"/>
+      <c r="A824" s="4"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="5"/>
+      <c r="A825" s="4"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="5"/>
+      <c r="A826" s="4"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="5"/>
+      <c r="A827" s="4"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="5"/>
+      <c r="A828" s="4"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="5"/>
+      <c r="A829" s="4"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="5"/>
+      <c r="A830" s="4"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="5"/>
+      <c r="A831" s="4"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="5"/>
+      <c r="A832" s="4"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="5"/>
+      <c r="A833" s="4"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="5"/>
+      <c r="A834" s="4"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="5"/>
+      <c r="A835" s="4"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="5"/>
+      <c r="A836" s="4"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="5"/>
+      <c r="A837" s="4"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="5"/>
+      <c r="A838" s="4"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="5"/>
+      <c r="A839" s="4"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="5"/>
+      <c r="A840" s="4"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="5"/>
+      <c r="A841" s="4"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="5"/>
+      <c r="A842" s="4"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="5"/>
+      <c r="A843" s="4"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="5"/>
+      <c r="A844" s="4"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="5"/>
+      <c r="A845" s="4"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="5"/>
+      <c r="A846" s="4"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="5"/>
+      <c r="A847" s="4"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="5"/>
+      <c r="A848" s="4"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="5"/>
+      <c r="A849" s="4"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="5"/>
+      <c r="A850" s="4"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="5"/>
+      <c r="A851" s="4"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="5"/>
+      <c r="A852" s="4"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="5"/>
+      <c r="A853" s="4"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="5"/>
+      <c r="A854" s="4"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="5"/>
+      <c r="A855" s="4"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="5"/>
+      <c r="A856" s="4"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="5"/>
+      <c r="A857" s="4"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="5"/>
+      <c r="A858" s="4"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="5"/>
+      <c r="A859" s="4"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="5"/>
+      <c r="A860" s="4"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="5"/>
+      <c r="A861" s="4"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="5"/>
+      <c r="A862" s="4"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="5"/>
+      <c r="A863" s="4"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="5"/>
+      <c r="A864" s="4"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="5"/>
+      <c r="A865" s="4"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="5"/>
+      <c r="A866" s="4"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="5"/>
+      <c r="A867" s="4"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="5"/>
+      <c r="A868" s="4"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="5"/>
+      <c r="A869" s="4"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="5"/>
+      <c r="A870" s="4"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="5"/>
+      <c r="A871" s="4"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="5"/>
+      <c r="A872" s="4"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="5"/>
+      <c r="A873" s="4"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="5"/>
+      <c r="A874" s="4"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="5"/>
+      <c r="A875" s="4"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="5"/>
+      <c r="A876" s="4"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="5"/>
+      <c r="A877" s="4"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="5"/>
+      <c r="A878" s="4"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="5"/>
+      <c r="A879" s="4"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="5"/>
+      <c r="A880" s="4"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="5"/>
+      <c r="A881" s="4"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="5"/>
+      <c r="A882" s="4"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="5"/>
+      <c r="A883" s="4"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="5"/>
+      <c r="A884" s="4"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="5"/>
+      <c r="A885" s="4"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="5"/>
+      <c r="A886" s="4"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="5"/>
+      <c r="A887" s="4"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="5"/>
+      <c r="A888" s="4"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="5"/>
+      <c r="A889" s="4"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="5"/>
+      <c r="A890" s="4"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="5"/>
+      <c r="A891" s="4"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="5"/>
+      <c r="A892" s="4"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="5"/>
+      <c r="A893" s="4"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="5"/>
+      <c r="A894" s="4"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="5"/>
+      <c r="A895" s="4"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="5"/>
+      <c r="A896" s="4"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="5"/>
+      <c r="A897" s="4"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="5"/>
+      <c r="A898" s="4"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="5"/>
+      <c r="A899" s="4"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="5"/>
+      <c r="A900" s="4"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="5"/>
+      <c r="A901" s="4"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="5"/>
+      <c r="A902" s="4"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="5"/>
+      <c r="A903" s="4"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="5"/>
+      <c r="A904" s="4"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="5"/>
+      <c r="A905" s="4"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="5"/>
+      <c r="A906" s="4"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="5"/>
+      <c r="A907" s="4"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="5"/>
+      <c r="A908" s="4"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="5"/>
+      <c r="A909" s="4"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="5"/>
+      <c r="A910" s="4"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="5"/>
+      <c r="A911" s="4"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="5"/>
+      <c r="A912" s="4"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="5"/>
+      <c r="A913" s="4"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="5"/>
+      <c r="A914" s="4"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="5"/>
+      <c r="A915" s="4"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="5"/>
+      <c r="A916" s="4"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="5"/>
+      <c r="A917" s="4"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="5"/>
+      <c r="A918" s="4"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="5"/>
+      <c r="A919" s="4"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="5"/>
+      <c r="A920" s="4"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="5"/>
+      <c r="A921" s="4"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="5"/>
+      <c r="A922" s="4"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="5"/>
+      <c r="A923" s="4"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="5"/>
+      <c r="A924" s="4"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="5"/>
+      <c r="A925" s="4"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="5"/>
+      <c r="A926" s="4"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="5"/>
+      <c r="A927" s="4"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="5"/>
+      <c r="A928" s="4"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="5"/>
+      <c r="A929" s="4"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="5"/>
+      <c r="A930" s="4"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="5"/>
+      <c r="A931" s="4"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="5"/>
+      <c r="A932" s="4"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="5"/>
+      <c r="A933" s="4"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="5"/>
+      <c r="A934" s="4"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="5"/>
+      <c r="A935" s="4"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="5"/>
+      <c r="A936" s="4"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="5"/>
+      <c r="A937" s="4"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="5"/>
+      <c r="A938" s="4"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="5"/>
+      <c r="A939" s="4"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="5"/>
+      <c r="A940" s="4"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="5"/>
+      <c r="A941" s="4"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="5"/>
+      <c r="A942" s="4"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="5"/>
+      <c r="A943" s="4"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="5"/>
+      <c r="A944" s="4"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="5"/>
+      <c r="A945" s="4"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="5"/>
+      <c r="A946" s="4"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="5"/>
+      <c r="A947" s="4"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="5"/>
+      <c r="A948" s="4"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="5"/>
+      <c r="A949" s="4"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="5"/>
+      <c r="A950" s="4"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="5"/>
+      <c r="A951" s="4"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="5"/>
+      <c r="A952" s="4"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="5"/>
+      <c r="A953" s="4"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="5"/>
+      <c r="A954" s="4"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="5"/>
+      <c r="A955" s="4"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="5"/>
+      <c r="A956" s="4"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="5"/>
+      <c r="A957" s="4"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="5"/>
+      <c r="A958" s="4"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="5"/>
+      <c r="A959" s="4"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="5"/>
+      <c r="A960" s="4"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="5"/>
+      <c r="A961" s="4"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="5"/>
+      <c r="A962" s="4"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="5"/>
+      <c r="A963" s="4"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="5"/>
+      <c r="A964" s="4"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="5"/>
+      <c r="A965" s="4"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="5"/>
+      <c r="A966" s="4"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="5"/>
+      <c r="A967" s="4"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="5"/>
+      <c r="A968" s="4"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="5"/>
+      <c r="A969" s="4"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="5"/>
+      <c r="A970" s="4"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="5"/>
+      <c r="A971" s="4"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="5"/>
+      <c r="A972" s="4"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="5"/>
+      <c r="A973" s="4"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="5"/>
+      <c r="A974" s="4"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="5"/>
+      <c r="A975" s="4"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="5"/>
+      <c r="A976" s="4"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="5"/>
+      <c r="A977" s="4"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="5"/>
+      <c r="A978" s="4"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="5"/>
+      <c r="A979" s="4"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="5"/>
+      <c r="A980" s="4"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="5"/>
+      <c r="A981" s="4"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="5"/>
+      <c r="A982" s="4"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="5"/>
+      <c r="A983" s="4"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="5"/>
+      <c r="A984" s="4"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="5"/>
+      <c r="A985" s="4"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="5"/>
+      <c r="A986" s="4"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="5"/>
+      <c r="A987" s="4"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="5"/>
+      <c r="A988" s="4"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="5"/>
+      <c r="A989" s="4"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="A990" s="5"/>
+      <c r="A990" s="4"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="A991" s="5"/>
+      <c r="A991" s="4"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="A992" s="5"/>
+      <c r="A992" s="4"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="A993" s="5"/>
+      <c r="A993" s="4"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="A994" s="5"/>
+      <c r="A994" s="4"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="A995" s="5"/>
+      <c r="A995" s="4"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="A996" s="5"/>
+      <c r="A996" s="4"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="A997" s="5"/>
+      <c r="A997" s="4"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="A998" s="5"/>
+      <c r="A998" s="4"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="5"/>
+      <c r="A999" s="4"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="A1000" s="5"/>
+      <c r="A1000" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4612,53 +4612,53 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
+      <c r="A1" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
+      <c r="A2" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+      <c r="A3" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
+      <c r="A4" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
+      <c r="A5" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
+      <c r="A6" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
+      <c r="A7" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
+      <c r="A8" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
+      <c r="A9" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
+      <c r="A10" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
